--- a/Code/Results/Cases/Case_2_82/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_82/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000631029086433</v>
+        <v>1.040005016769034</v>
       </c>
       <c r="D2">
-        <v>1.022004409850786</v>
+        <v>1.047274939994667</v>
       </c>
       <c r="E2">
-        <v>1.019492384067286</v>
+        <v>1.05417882408134</v>
       </c>
       <c r="F2">
-        <v>1.026524952312832</v>
+        <v>1.060185003763752</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043590538835999</v>
+        <v>1.036047759160601</v>
       </c>
       <c r="J2">
-        <v>1.022792882548122</v>
+        <v>1.045093964709403</v>
       </c>
       <c r="K2">
-        <v>1.033165469241881</v>
+        <v>1.050038033861895</v>
       </c>
       <c r="L2">
-        <v>1.0306866774352</v>
+        <v>1.056922749147953</v>
       </c>
       <c r="M2">
-        <v>1.037626718393551</v>
+        <v>1.062912472444702</v>
       </c>
       <c r="N2">
-        <v>1.010959601216055</v>
+        <v>1.018857188523417</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.00655102742651</v>
+        <v>1.041227385148773</v>
       </c>
       <c r="D3">
-        <v>1.026535234103776</v>
+        <v>1.048229230044684</v>
       </c>
       <c r="E3">
-        <v>1.024470310138469</v>
+        <v>1.055287085791918</v>
       </c>
       <c r="F3">
-        <v>1.031733854666631</v>
+        <v>1.06132604761513</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045046683010446</v>
+        <v>1.036274064803214</v>
       </c>
       <c r="J3">
-        <v>1.026864684093421</v>
+        <v>1.045960409227279</v>
       </c>
       <c r="K3">
-        <v>1.036839486400468</v>
+        <v>1.050803765620319</v>
       </c>
       <c r="L3">
-        <v>1.034799377296153</v>
+        <v>1.057843448092422</v>
       </c>
       <c r="M3">
-        <v>1.041976178391826</v>
+        <v>1.063867067013442</v>
       </c>
       <c r="N3">
-        <v>1.012368663930905</v>
+        <v>1.01915179761539</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010286991964783</v>
+        <v>1.042018060085472</v>
       </c>
       <c r="D4">
-        <v>1.029397372033978</v>
+        <v>1.04884631720711</v>
       </c>
       <c r="E4">
-        <v>1.027623613245535</v>
+        <v>1.056004763385076</v>
       </c>
       <c r="F4">
-        <v>1.035029797032284</v>
+        <v>1.062064627941135</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045954133600644</v>
+        <v>1.036418952961264</v>
       </c>
       <c r="J4">
-        <v>1.029431166336656</v>
+        <v>1.046520276846107</v>
       </c>
       <c r="K4">
-        <v>1.039153485118506</v>
+        <v>1.051298223163536</v>
       </c>
       <c r="L4">
-        <v>1.037399696187437</v>
+        <v>1.058439168959357</v>
       </c>
       <c r="M4">
-        <v>1.044723055552208</v>
+        <v>1.064484416970963</v>
       </c>
       <c r="N4">
-        <v>1.013256045527822</v>
+        <v>1.019341987831093</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.01183594669114</v>
+        <v>1.04235039498187</v>
       </c>
       <c r="D5">
-        <v>1.030584627090277</v>
+        <v>1.049105644986671</v>
       </c>
       <c r="E5">
-        <v>1.028933744900248</v>
+        <v>1.056306609365805</v>
       </c>
       <c r="F5">
-        <v>1.036398325267957</v>
+        <v>1.062375187523558</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046327556088892</v>
+        <v>1.036479493817172</v>
       </c>
       <c r="J5">
-        <v>1.030494441008097</v>
+        <v>1.046755459497151</v>
       </c>
       <c r="K5">
-        <v>1.040111712076866</v>
+        <v>1.051505849112641</v>
       </c>
       <c r="L5">
-        <v>1.038478899372137</v>
+        <v>1.058689602789207</v>
       </c>
       <c r="M5">
-        <v>1.045862339190343</v>
+        <v>1.064743871110539</v>
       </c>
       <c r="N5">
-        <v>1.013623488466743</v>
+        <v>1.019421838323568</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.012094782156373</v>
+        <v>1.042406191728215</v>
       </c>
       <c r="D6">
-        <v>1.030783053798399</v>
+        <v>1.049149181671052</v>
       </c>
       <c r="E6">
-        <v>1.029152831463159</v>
+        <v>1.056357298531003</v>
       </c>
       <c r="F6">
-        <v>1.036627126623335</v>
+        <v>1.062427335412344</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046389789257278</v>
+        <v>1.036489637193651</v>
       </c>
       <c r="J6">
-        <v>1.030672068855463</v>
+        <v>1.046794936839395</v>
       </c>
       <c r="K6">
-        <v>1.040271764044168</v>
+        <v>1.051540696134775</v>
       </c>
       <c r="L6">
-        <v>1.03865929989656</v>
+        <v>1.058731651326755</v>
       </c>
       <c r="M6">
-        <v>1.046052739204038</v>
+        <v>1.064787429946692</v>
       </c>
       <c r="N6">
-        <v>1.013684860876855</v>
+        <v>1.019435239394439</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.0103077729228</v>
+        <v>1.042022501012953</v>
       </c>
       <c r="D7">
-        <v>1.029413298150387</v>
+        <v>1.048849782732683</v>
       </c>
       <c r="E7">
-        <v>1.027641179362239</v>
+        <v>1.056008796137187</v>
       </c>
       <c r="F7">
-        <v>1.035048149531593</v>
+        <v>1.062068777414991</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045959154673262</v>
+        <v>1.036419763365284</v>
       </c>
       <c r="J7">
-        <v>1.029445434607539</v>
+        <v>1.046523420096594</v>
       </c>
       <c r="K7">
-        <v>1.039166345529213</v>
+        <v>1.051300998429538</v>
       </c>
       <c r="L7">
-        <v>1.037414170679356</v>
+        <v>1.058442515296011</v>
       </c>
       <c r="M7">
-        <v>1.044738338791431</v>
+        <v>1.064487884122385</v>
       </c>
       <c r="N7">
-        <v>1.013260977085501</v>
+        <v>1.019343055211429</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002651957745498</v>
+        <v>1.040418180876752</v>
       </c>
       <c r="D8">
-        <v>1.023550457145636</v>
+        <v>1.04759753047943</v>
       </c>
       <c r="E8">
-        <v>1.021189161760431</v>
+        <v>1.054553251164569</v>
       </c>
       <c r="F8">
-        <v>1.028301240757791</v>
+        <v>1.060570573923641</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044090008078527</v>
+        <v>1.036124560570736</v>
       </c>
       <c r="J8">
-        <v>1.024183511036201</v>
+        <v>1.045386945793136</v>
       </c>
       <c r="K8">
-        <v>1.034420598771845</v>
+        <v>1.050297028546953</v>
       </c>
       <c r="L8">
-        <v>1.032089562428727</v>
+        <v>1.057233910878808</v>
       </c>
       <c r="M8">
-        <v>1.039111028542087</v>
+        <v>1.063235152312523</v>
       </c>
       <c r="N8">
-        <v>1.011440986981278</v>
+        <v>1.01895684461846</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9883868303468613</v>
+        <v>1.037588936976311</v>
       </c>
       <c r="D9">
-        <v>1.01265349718353</v>
+        <v>1.04538779100996</v>
       </c>
       <c r="E9">
-        <v>1.009267082000913</v>
+        <v>1.051992638097964</v>
       </c>
       <c r="F9">
-        <v>1.015804208112843</v>
+        <v>1.057932412188114</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04051765660814</v>
+        <v>1.03559252184424</v>
       </c>
       <c r="J9">
-        <v>1.014356451565928</v>
+        <v>1.043378313526491</v>
       </c>
       <c r="K9">
-        <v>1.025544562691644</v>
+        <v>1.048520045680992</v>
       </c>
       <c r="L9">
-        <v>1.022211575474427</v>
+        <v>1.055103913474594</v>
       </c>
       <c r="M9">
-        <v>1.028645973340097</v>
+        <v>1.061025065241877</v>
       </c>
       <c r="N9">
-        <v>1.008036399483507</v>
+        <v>1.01827289944554</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9782802365517627</v>
+        <v>1.035701150477749</v>
       </c>
       <c r="D10">
-        <v>1.004958520724943</v>
+        <v>1.043912495107848</v>
       </c>
       <c r="E10">
-        <v>1.000895828315184</v>
+        <v>1.050288368435459</v>
       </c>
       <c r="F10">
-        <v>1.007007675798202</v>
+        <v>1.056174832016505</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0379298691076</v>
+        <v>1.03522984763189</v>
       </c>
       <c r="J10">
-        <v>1.007382909657886</v>
+        <v>1.042035111481236</v>
       </c>
       <c r="K10">
-        <v>1.01923882098903</v>
+        <v>1.047330059449694</v>
       </c>
       <c r="L10">
-        <v>1.01524892712074</v>
+        <v>1.053683681268777</v>
       </c>
       <c r="M10">
-        <v>1.021251546804677</v>
+        <v>1.059549863759841</v>
       </c>
       <c r="N10">
-        <v>1.005617335647119</v>
+        <v>1.017814638618178</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9737434476325222</v>
+        <v>1.034883303986935</v>
       </c>
       <c r="D11">
-        <v>1.001511974097866</v>
+        <v>1.04327315815474</v>
       </c>
       <c r="E11">
-        <v>0.997157758717912</v>
+        <v>1.049551054963406</v>
       </c>
       <c r="F11">
-        <v>1.003074281148868</v>
+        <v>1.055414049609636</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036755692545112</v>
+        <v>1.0350709094366</v>
       </c>
       <c r="J11">
-        <v>1.004250847017431</v>
+        <v>1.041452498793939</v>
       </c>
       <c r="K11">
-        <v>1.016405433020266</v>
+        <v>1.046813506675209</v>
       </c>
       <c r="L11">
-        <v>1.012133475337045</v>
+        <v>1.053068638903608</v>
       </c>
       <c r="M11">
-        <v>1.017938452979381</v>
+        <v>1.058910643291003</v>
       </c>
       <c r="N11">
-        <v>1.004530290314593</v>
+        <v>1.01761565775997</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9720323478988143</v>
+        <v>1.034579453322213</v>
       </c>
       <c r="D12">
-        <v>1.000213380186965</v>
+        <v>1.043035600160282</v>
       </c>
       <c r="E12">
-        <v>0.9957510436863728</v>
+        <v>1.049277279968602</v>
       </c>
       <c r="F12">
-        <v>1.001593217477626</v>
+        <v>1.055131499105788</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036311043378559</v>
+        <v>1.035011587248509</v>
       </c>
       <c r="J12">
-        <v>1.003069393926923</v>
+        <v>1.041235939218685</v>
       </c>
       <c r="K12">
-        <v>1.015336493310702</v>
+        <v>1.046621442473159</v>
       </c>
       <c r="L12">
-        <v>1.01096010225035</v>
+        <v>1.052840172889112</v>
       </c>
       <c r="M12">
-        <v>1.016689957477617</v>
+        <v>1.058673139778157</v>
       </c>
       <c r="N12">
-        <v>1.004120174691305</v>
+        <v>1.017541664260941</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9724005892354362</v>
+        <v>1.034644633352414</v>
       </c>
       <c r="D13">
-        <v>1.000492785490542</v>
+        <v>1.043086560783723</v>
       </c>
       <c r="E13">
-        <v>0.99605363448439</v>
+        <v>1.04933600130488</v>
       </c>
       <c r="F13">
-        <v>1.001911839611418</v>
+        <v>1.055192105451631</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036406814785922</v>
+        <v>1.035024324982507</v>
       </c>
       <c r="J13">
-        <v>1.003323657123436</v>
+        <v>1.041282398851789</v>
       </c>
       <c r="K13">
-        <v>1.015566548392635</v>
+        <v>1.046662649669991</v>
       </c>
       <c r="L13">
-        <v>1.01121254368582</v>
+        <v>1.052889180179332</v>
       </c>
       <c r="M13">
-        <v>1.01695859208387</v>
+        <v>1.058724088209936</v>
       </c>
       <c r="N13">
-        <v>1.004208439444642</v>
+        <v>1.017557539886486</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9736025477581253</v>
+        <v>1.03485818895888</v>
       </c>
       <c r="D14">
-        <v>1.00140501435383</v>
+        <v>1.043253523170438</v>
       </c>
       <c r="E14">
-        <v>0.9970418585089623</v>
+        <v>1.049528422683632</v>
       </c>
       <c r="F14">
-        <v>1.002952272622098</v>
+        <v>1.055390693130195</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036719114002274</v>
+        <v>1.035066011671368</v>
       </c>
       <c r="J14">
-        <v>1.004153563423121</v>
+        <v>1.041434601006374</v>
       </c>
       <c r="K14">
-        <v>1.016317416861708</v>
+        <v>1.046797634541908</v>
       </c>
       <c r="L14">
-        <v>1.012036819909641</v>
+        <v>1.053049754080102</v>
       </c>
       <c r="M14">
-        <v>1.017835623426036</v>
+        <v>1.058891012582228</v>
       </c>
       <c r="N14">
-        <v>1.004496521741283</v>
+        <v>1.017609543132688</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9743396203067455</v>
+        <v>1.034989758784611</v>
       </c>
       <c r="D15">
-        <v>1.001964594213227</v>
+        <v>1.043356383603887</v>
       </c>
       <c r="E15">
-        <v>0.9976482821478245</v>
+        <v>1.049646992542048</v>
       </c>
       <c r="F15">
-        <v>1.003590622209388</v>
+        <v>1.05551305454321</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036910390383416</v>
+        <v>1.03509165837927</v>
       </c>
       <c r="J15">
-        <v>1.004662465374047</v>
+        <v>1.041528357687467</v>
       </c>
       <c r="K15">
-        <v>1.016777833877396</v>
+        <v>1.046880777503745</v>
       </c>
       <c r="L15">
-        <v>1.012542510015099</v>
+        <v>1.053148687353424</v>
       </c>
       <c r="M15">
-        <v>1.018373587868988</v>
+        <v>1.058993851075449</v>
       </c>
       <c r="N15">
-        <v>1.004673166432209</v>
+        <v>1.017641573019499</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9785777947709737</v>
+        <v>1.035755419133685</v>
       </c>
       <c r="D16">
-        <v>1.005184744575418</v>
+        <v>1.043954914664783</v>
       </c>
       <c r="E16">
-        <v>1.001141424360409</v>
+        <v>1.050337315032269</v>
       </c>
       <c r="F16">
-        <v>1.007265989734564</v>
+        <v>1.05622532803447</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038006627784123</v>
+        <v>1.035240355822229</v>
       </c>
       <c r="J16">
-        <v>1.007588307515753</v>
+        <v>1.042073756430641</v>
       </c>
       <c r="K16">
-        <v>1.019424609098419</v>
+        <v>1.047364314278683</v>
       </c>
       <c r="L16">
-        <v>1.015453483329153</v>
+        <v>1.05372449799238</v>
       </c>
       <c r="M16">
-        <v>1.021468986155005</v>
+        <v>1.059592277166584</v>
       </c>
       <c r="N16">
-        <v>1.00568861278047</v>
+        <v>1.017827832683052</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9811920775394934</v>
+        <v>1.036235582704702</v>
       </c>
       <c r="D17">
-        <v>1.007173186967881</v>
+        <v>1.044330216335932</v>
       </c>
       <c r="E17">
-        <v>1.003301434774434</v>
+        <v>1.050770508429087</v>
       </c>
       <c r="F17">
-        <v>1.009537234158931</v>
+        <v>1.056672187434263</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038679602508895</v>
+        <v>1.035333121452157</v>
       </c>
       <c r="J17">
-        <v>1.009392708820742</v>
+        <v>1.042415602619305</v>
       </c>
       <c r="K17">
-        <v>1.021056602433702</v>
+        <v>1.047667280443942</v>
       </c>
       <c r="L17">
-        <v>1.017251824445104</v>
+        <v>1.054085668684248</v>
       </c>
       <c r="M17">
-        <v>1.023380082321051</v>
+        <v>1.059967533131132</v>
       </c>
       <c r="N17">
-        <v>1.006314714322863</v>
+        <v>1.017944520688985</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9827015834311368</v>
+        <v>1.036515613405288</v>
       </c>
       <c r="D18">
-        <v>1.008322042688227</v>
+        <v>1.044549072955959</v>
       </c>
       <c r="E18">
-        <v>1.004550491867106</v>
+        <v>1.051023245264248</v>
       </c>
       <c r="F18">
-        <v>1.010850102328115</v>
+        <v>1.056932858274328</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039066993483902</v>
+        <v>1.03538704698092</v>
       </c>
       <c r="J18">
-        <v>1.010434418146942</v>
+        <v>1.042614899587756</v>
       </c>
       <c r="K18">
-        <v>1.021998656534657</v>
+        <v>1.047843871968823</v>
       </c>
       <c r="L18">
-        <v>1.018291137480082</v>
+        <v>1.054296326517711</v>
       </c>
       <c r="M18">
-        <v>1.024484140719392</v>
+        <v>1.060186370395124</v>
       </c>
       <c r="N18">
-        <v>1.006676118826939</v>
+        <v>1.018012529701581</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9832137325676781</v>
+        <v>1.036611089831146</v>
       </c>
       <c r="D19">
-        <v>1.008711946301864</v>
+        <v>1.044623688873801</v>
       </c>
       <c r="E19">
-        <v>1.004974584373079</v>
+        <v>1.051109432619359</v>
       </c>
       <c r="F19">
-        <v>1.011295774653927</v>
+        <v>1.057021744627136</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03919822423377</v>
+        <v>1.035405403146635</v>
       </c>
       <c r="J19">
-        <v>1.010787821425231</v>
+        <v>1.042682838441595</v>
       </c>
       <c r="K19">
-        <v>1.02231822976288</v>
+        <v>1.047904064196932</v>
       </c>
       <c r="L19">
-        <v>1.018643913298618</v>
+        <v>1.054368154251269</v>
       </c>
       <c r="M19">
-        <v>1.024858822568894</v>
+        <v>1.060260980956313</v>
       </c>
       <c r="N19">
-        <v>1.006798716913093</v>
+        <v>1.018035710017474</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9809131911226344</v>
+        <v>1.03618406991578</v>
       </c>
       <c r="D20">
-        <v>1.006960988676674</v>
+        <v>1.044289955249838</v>
       </c>
       <c r="E20">
-        <v>1.003070815788537</v>
+        <v>1.050724024425938</v>
       </c>
       <c r="F20">
-        <v>1.009294792281391</v>
+        <v>1.056624241042056</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038607933838249</v>
+        <v>1.035323187518982</v>
       </c>
       <c r="J20">
-        <v>1.009200235445958</v>
+        <v>1.042378935712949</v>
       </c>
       <c r="K20">
-        <v>1.020882531955828</v>
+        <v>1.047634787825732</v>
       </c>
       <c r="L20">
-        <v>1.017059882667455</v>
+        <v>1.054046919211067</v>
       </c>
       <c r="M20">
-        <v>1.023176149505062</v>
+        <v>1.059927276194501</v>
       </c>
       <c r="N20">
-        <v>1.006247934283515</v>
+        <v>1.017932006668528</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9732493322933083</v>
+        <v>1.034795304000019</v>
       </c>
       <c r="D21">
-        <v>1.001136903468144</v>
+        <v>1.043204359119819</v>
       </c>
       <c r="E21">
-        <v>0.9967513647014749</v>
+        <v>1.049471756740582</v>
       </c>
       <c r="F21">
-        <v>1.002646455157178</v>
+        <v>1.055332212971364</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03662738833264</v>
+        <v>1.035053743863439</v>
       </c>
       <c r="J21">
-        <v>1.003909685348004</v>
+        <v>1.041389785453142</v>
       </c>
       <c r="K21">
-        <v>1.016096768829759</v>
+        <v>1.046757890211713</v>
       </c>
       <c r="L21">
-        <v>1.011794545962159</v>
+        <v>1.053002469405031</v>
       </c>
       <c r="M21">
-        <v>1.017577862495797</v>
+        <v>1.058841859417491</v>
       </c>
       <c r="N21">
-        <v>1.004411867007434</v>
+        <v>1.017594231771226</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9682796790953904</v>
+        <v>1.033921748239296</v>
       </c>
       <c r="D22">
-        <v>0.9973679844824987</v>
+        <v>1.042521339620467</v>
       </c>
       <c r="E22">
-        <v>0.9926719182394963</v>
+        <v>1.04868496156738</v>
       </c>
       <c r="F22">
-        <v>0.9983497651202999</v>
+        <v>1.054520082587913</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035332663702607</v>
+        <v>1.034882682161008</v>
       </c>
       <c r="J22">
-        <v>1.000478120857791</v>
+        <v>1.040766991433863</v>
       </c>
       <c r="K22">
-        <v>1.012991763056747</v>
+        <v>1.046205429803899</v>
       </c>
       <c r="L22">
-        <v>1.008389957200536</v>
+        <v>1.052345713031846</v>
       </c>
       <c r="M22">
-        <v>1.013953984524616</v>
+        <v>1.058159017496151</v>
       </c>
       <c r="N22">
-        <v>1.003220562283194</v>
+        <v>1.017381378023127</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9709291601300051</v>
+        <v>1.034384873895472</v>
       </c>
       <c r="D23">
-        <v>0.9993765343602109</v>
+        <v>1.042883465335081</v>
       </c>
       <c r="E23">
-        <v>0.9948450079425886</v>
+        <v>1.049102004307754</v>
       </c>
       <c r="F23">
-        <v>1.000639053704466</v>
+        <v>1.054950587958212</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036023872602135</v>
+        <v>1.034973521887444</v>
       </c>
       <c r="J23">
-        <v>1.002307648874156</v>
+        <v>1.041097229844665</v>
       </c>
       <c r="K23">
-        <v>1.014647254223469</v>
+        <v>1.046498406045805</v>
       </c>
       <c r="L23">
-        <v>1.010204085356753</v>
+        <v>1.052693878921584</v>
       </c>
       <c r="M23">
-        <v>1.015885343200507</v>
+        <v>1.058521042977524</v>
       </c>
       <c r="N23">
-        <v>1.003855734208889</v>
+        <v>1.017494261569129</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9810392552261021</v>
+        <v>1.036207346453166</v>
       </c>
       <c r="D24">
-        <v>1.007056905761298</v>
+        <v>1.044308147657772</v>
       </c>
       <c r="E24">
-        <v>1.003175055992313</v>
+        <v>1.05074502835325</v>
       </c>
       <c r="F24">
-        <v>1.009404378038388</v>
+        <v>1.056645905874786</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038640333688306</v>
+        <v>1.035327676801561</v>
       </c>
       <c r="J24">
-        <v>1.00928723906742</v>
+        <v>1.04239550420671</v>
       </c>
       <c r="K24">
-        <v>1.020961217306715</v>
+        <v>1.047649470222995</v>
       </c>
       <c r="L24">
-        <v>1.017146642574009</v>
+        <v>1.054064428451547</v>
       </c>
       <c r="M24">
-        <v>1.023268330798487</v>
+        <v>1.059945466704887</v>
       </c>
       <c r="N24">
-        <v>1.006278120991808</v>
+        <v>1.017937661379906</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9921738888909692</v>
+        <v>1.038320641261822</v>
       </c>
       <c r="D25">
-        <v>1.015542559408682</v>
+        <v>1.045959434867842</v>
       </c>
       <c r="E25">
-        <v>1.012419779621067</v>
+        <v>1.052654119956867</v>
       </c>
       <c r="F25">
-        <v>1.019112564644708</v>
+        <v>1.058614225377607</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041476061778282</v>
+        <v>1.035731472556645</v>
       </c>
       <c r="J25">
-        <v>1.016967534175422</v>
+        <v>1.043898313297091</v>
       </c>
       <c r="K25">
-        <v>1.027904294971837</v>
+        <v>1.048980374534731</v>
       </c>
       <c r="L25">
-        <v>1.024828306045306</v>
+        <v>1.055654606828534</v>
       </c>
       <c r="M25">
-        <v>1.031421254650368</v>
+        <v>1.061596740874494</v>
       </c>
       <c r="N25">
-        <v>1.008941590333164</v>
+        <v>1.018450119393197</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_82/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_82/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040005016769034</v>
+        <v>1.000631029086432</v>
       </c>
       <c r="D2">
-        <v>1.047274939994667</v>
+        <v>1.022004409850785</v>
       </c>
       <c r="E2">
-        <v>1.05417882408134</v>
+        <v>1.019492384067285</v>
       </c>
       <c r="F2">
-        <v>1.060185003763752</v>
+        <v>1.026524952312831</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036047759160601</v>
+        <v>1.043590538835999</v>
       </c>
       <c r="J2">
-        <v>1.045093964709403</v>
+        <v>1.022792882548121</v>
       </c>
       <c r="K2">
-        <v>1.050038033861895</v>
+        <v>1.03316546924188</v>
       </c>
       <c r="L2">
-        <v>1.056922749147953</v>
+        <v>1.030686677435199</v>
       </c>
       <c r="M2">
-        <v>1.062912472444702</v>
+        <v>1.03762671839355</v>
       </c>
       <c r="N2">
-        <v>1.018857188523417</v>
+        <v>1.010959601216054</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041227385148773</v>
+        <v>1.00655102742651</v>
       </c>
       <c r="D3">
-        <v>1.048229230044684</v>
+        <v>1.026535234103776</v>
       </c>
       <c r="E3">
-        <v>1.055287085791918</v>
+        <v>1.02447031013847</v>
       </c>
       <c r="F3">
-        <v>1.06132604761513</v>
+        <v>1.031733854666632</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036274064803214</v>
+        <v>1.045046683010446</v>
       </c>
       <c r="J3">
-        <v>1.045960409227279</v>
+        <v>1.026864684093421</v>
       </c>
       <c r="K3">
-        <v>1.050803765620319</v>
+        <v>1.036839486400468</v>
       </c>
       <c r="L3">
-        <v>1.057843448092422</v>
+        <v>1.034799377296153</v>
       </c>
       <c r="M3">
-        <v>1.063867067013442</v>
+        <v>1.041976178391826</v>
       </c>
       <c r="N3">
-        <v>1.01915179761539</v>
+        <v>1.012368663930905</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042018060085472</v>
+        <v>1.010286991964783</v>
       </c>
       <c r="D4">
-        <v>1.04884631720711</v>
+        <v>1.029397372033978</v>
       </c>
       <c r="E4">
-        <v>1.056004763385076</v>
+        <v>1.027623613245537</v>
       </c>
       <c r="F4">
-        <v>1.062064627941135</v>
+        <v>1.035029797032285</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036418952961264</v>
+        <v>1.045954133600644</v>
       </c>
       <c r="J4">
-        <v>1.046520276846107</v>
+        <v>1.029431166336656</v>
       </c>
       <c r="K4">
-        <v>1.051298223163536</v>
+        <v>1.039153485118507</v>
       </c>
       <c r="L4">
-        <v>1.058439168959357</v>
+        <v>1.037399696187437</v>
       </c>
       <c r="M4">
-        <v>1.064484416970963</v>
+        <v>1.044723055552209</v>
       </c>
       <c r="N4">
-        <v>1.019341987831093</v>
+        <v>1.013256045527822</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.04235039498187</v>
+        <v>1.01183594669114</v>
       </c>
       <c r="D5">
-        <v>1.049105644986671</v>
+        <v>1.030584627090278</v>
       </c>
       <c r="E5">
-        <v>1.056306609365805</v>
+        <v>1.028933744900248</v>
       </c>
       <c r="F5">
-        <v>1.062375187523558</v>
+        <v>1.036398325267957</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036479493817172</v>
+        <v>1.046327556088892</v>
       </c>
       <c r="J5">
-        <v>1.046755459497151</v>
+        <v>1.030494441008097</v>
       </c>
       <c r="K5">
-        <v>1.051505849112641</v>
+        <v>1.040111712076866</v>
       </c>
       <c r="L5">
-        <v>1.058689602789207</v>
+        <v>1.038478899372137</v>
       </c>
       <c r="M5">
-        <v>1.064743871110539</v>
+        <v>1.045862339190343</v>
       </c>
       <c r="N5">
-        <v>1.019421838323568</v>
+        <v>1.013623488466743</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042406191728215</v>
+        <v>1.012094782156373</v>
       </c>
       <c r="D6">
-        <v>1.049149181671052</v>
+        <v>1.030783053798398</v>
       </c>
       <c r="E6">
-        <v>1.056357298531003</v>
+        <v>1.029152831463158</v>
       </c>
       <c r="F6">
-        <v>1.062427335412344</v>
+        <v>1.036627126623335</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036489637193651</v>
+        <v>1.046389789257277</v>
       </c>
       <c r="J6">
-        <v>1.046794936839395</v>
+        <v>1.030672068855462</v>
       </c>
       <c r="K6">
-        <v>1.051540696134775</v>
+        <v>1.040271764044167</v>
       </c>
       <c r="L6">
-        <v>1.058731651326755</v>
+        <v>1.038659299896559</v>
       </c>
       <c r="M6">
-        <v>1.064787429946692</v>
+        <v>1.046052739204037</v>
       </c>
       <c r="N6">
-        <v>1.019435239394439</v>
+        <v>1.013684860876855</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.042022501012953</v>
+        <v>1.0103077729228</v>
       </c>
       <c r="D7">
-        <v>1.048849782732683</v>
+        <v>1.029413298150388</v>
       </c>
       <c r="E7">
-        <v>1.056008796137187</v>
+        <v>1.02764117936224</v>
       </c>
       <c r="F7">
-        <v>1.062068777414991</v>
+        <v>1.035048149531594</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036419763365284</v>
+        <v>1.045959154673263</v>
       </c>
       <c r="J7">
-        <v>1.046523420096594</v>
+        <v>1.029445434607539</v>
       </c>
       <c r="K7">
-        <v>1.051300998429538</v>
+        <v>1.039166345529214</v>
       </c>
       <c r="L7">
-        <v>1.058442515296011</v>
+        <v>1.037414170679357</v>
       </c>
       <c r="M7">
-        <v>1.064487884122385</v>
+        <v>1.044738338791431</v>
       </c>
       <c r="N7">
-        <v>1.019343055211429</v>
+        <v>1.013260977085501</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040418180876752</v>
+        <v>1.002651957745499</v>
       </c>
       <c r="D8">
-        <v>1.04759753047943</v>
+        <v>1.023550457145637</v>
       </c>
       <c r="E8">
-        <v>1.054553251164569</v>
+        <v>1.021189161760431</v>
       </c>
       <c r="F8">
-        <v>1.060570573923641</v>
+        <v>1.028301240757792</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036124560570736</v>
+        <v>1.044090008078527</v>
       </c>
       <c r="J8">
-        <v>1.045386945793136</v>
+        <v>1.024183511036202</v>
       </c>
       <c r="K8">
-        <v>1.050297028546953</v>
+        <v>1.034420598771846</v>
       </c>
       <c r="L8">
-        <v>1.057233910878808</v>
+        <v>1.032089562428728</v>
       </c>
       <c r="M8">
-        <v>1.063235152312523</v>
+        <v>1.039111028542088</v>
       </c>
       <c r="N8">
-        <v>1.01895684461846</v>
+        <v>1.011440986981278</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.037588936976311</v>
+        <v>0.98838683034686</v>
       </c>
       <c r="D9">
-        <v>1.04538779100996</v>
+        <v>1.012653497183529</v>
       </c>
       <c r="E9">
-        <v>1.051992638097964</v>
+        <v>1.009267082000912</v>
       </c>
       <c r="F9">
-        <v>1.057932412188114</v>
+        <v>1.015804208112842</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03559252184424</v>
+        <v>1.04051765660814</v>
       </c>
       <c r="J9">
-        <v>1.043378313526491</v>
+        <v>1.014356451565926</v>
       </c>
       <c r="K9">
-        <v>1.048520045680992</v>
+        <v>1.025544562691643</v>
       </c>
       <c r="L9">
-        <v>1.055103913474594</v>
+        <v>1.022211575474427</v>
       </c>
       <c r="M9">
-        <v>1.061025065241877</v>
+        <v>1.028645973340096</v>
       </c>
       <c r="N9">
-        <v>1.01827289944554</v>
+        <v>1.008036399483506</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035701150477749</v>
+        <v>0.9782802365517631</v>
       </c>
       <c r="D10">
-        <v>1.043912495107848</v>
+        <v>1.004958520724943</v>
       </c>
       <c r="E10">
-        <v>1.050288368435459</v>
+        <v>1.000895828315185</v>
       </c>
       <c r="F10">
-        <v>1.056174832016505</v>
+        <v>1.007007675798203</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03522984763189</v>
+        <v>1.037929869107601</v>
       </c>
       <c r="J10">
-        <v>1.042035111481236</v>
+        <v>1.007382909657886</v>
       </c>
       <c r="K10">
-        <v>1.047330059449694</v>
+        <v>1.01923882098903</v>
       </c>
       <c r="L10">
-        <v>1.053683681268777</v>
+        <v>1.01524892712074</v>
       </c>
       <c r="M10">
-        <v>1.059549863759841</v>
+        <v>1.021251546804678</v>
       </c>
       <c r="N10">
-        <v>1.017814638618178</v>
+        <v>1.005617335647119</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034883303986935</v>
+        <v>0.9737434476325217</v>
       </c>
       <c r="D11">
-        <v>1.04327315815474</v>
+        <v>1.001511974097866</v>
       </c>
       <c r="E11">
-        <v>1.049551054963406</v>
+        <v>0.9971577587179122</v>
       </c>
       <c r="F11">
-        <v>1.055414049609636</v>
+        <v>1.003074281148868</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0350709094366</v>
+        <v>1.036755692545112</v>
       </c>
       <c r="J11">
-        <v>1.041452498793939</v>
+        <v>1.004250847017431</v>
       </c>
       <c r="K11">
-        <v>1.046813506675209</v>
+        <v>1.016405433020266</v>
       </c>
       <c r="L11">
-        <v>1.053068638903608</v>
+        <v>1.012133475337045</v>
       </c>
       <c r="M11">
-        <v>1.058910643291003</v>
+        <v>1.017938452979381</v>
       </c>
       <c r="N11">
-        <v>1.01761565775997</v>
+        <v>1.004530290314593</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034579453322213</v>
+        <v>0.972032347898814</v>
       </c>
       <c r="D12">
-        <v>1.043035600160282</v>
+        <v>1.000213380186965</v>
       </c>
       <c r="E12">
-        <v>1.049277279968602</v>
+        <v>0.995751043686373</v>
       </c>
       <c r="F12">
-        <v>1.055131499105788</v>
+        <v>1.001593217477625</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035011587248509</v>
+        <v>1.036311043378559</v>
       </c>
       <c r="J12">
-        <v>1.041235939218685</v>
+        <v>1.003069393926923</v>
       </c>
       <c r="K12">
-        <v>1.046621442473159</v>
+        <v>1.015336493310702</v>
       </c>
       <c r="L12">
-        <v>1.052840172889112</v>
+        <v>1.01096010225035</v>
       </c>
       <c r="M12">
-        <v>1.058673139778157</v>
+        <v>1.016689957477617</v>
       </c>
       <c r="N12">
-        <v>1.017541664260941</v>
+        <v>1.004120174691305</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034644633352414</v>
+        <v>0.9724005892354376</v>
       </c>
       <c r="D13">
-        <v>1.043086560783723</v>
+        <v>1.000492785490543</v>
       </c>
       <c r="E13">
-        <v>1.04933600130488</v>
+        <v>0.9960536344843912</v>
       </c>
       <c r="F13">
-        <v>1.055192105451631</v>
+        <v>1.00191183961142</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035024324982507</v>
+        <v>1.036406814785922</v>
       </c>
       <c r="J13">
-        <v>1.041282398851789</v>
+        <v>1.003323657123437</v>
       </c>
       <c r="K13">
-        <v>1.046662649669991</v>
+        <v>1.015566548392636</v>
       </c>
       <c r="L13">
-        <v>1.052889180179332</v>
+        <v>1.011212543685821</v>
       </c>
       <c r="M13">
-        <v>1.058724088209936</v>
+        <v>1.016958592083871</v>
       </c>
       <c r="N13">
-        <v>1.017557539886486</v>
+        <v>1.004208439444643</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.03485818895888</v>
+        <v>0.9736025477581262</v>
       </c>
       <c r="D14">
-        <v>1.043253523170438</v>
+        <v>1.001405014353831</v>
       </c>
       <c r="E14">
-        <v>1.049528422683632</v>
+        <v>0.9970418585089632</v>
       </c>
       <c r="F14">
-        <v>1.055390693130195</v>
+        <v>1.002952272622099</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035066011671368</v>
+        <v>1.036719114002275</v>
       </c>
       <c r="J14">
-        <v>1.041434601006374</v>
+        <v>1.004153563423122</v>
       </c>
       <c r="K14">
-        <v>1.046797634541908</v>
+        <v>1.016317416861709</v>
       </c>
       <c r="L14">
-        <v>1.053049754080102</v>
+        <v>1.012036819909641</v>
       </c>
       <c r="M14">
-        <v>1.058891012582228</v>
+        <v>1.017835623426037</v>
       </c>
       <c r="N14">
-        <v>1.017609543132688</v>
+        <v>1.004496521741284</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.034989758784611</v>
+        <v>0.9743396203067456</v>
       </c>
       <c r="D15">
-        <v>1.043356383603887</v>
+        <v>1.001964594213227</v>
       </c>
       <c r="E15">
-        <v>1.049646992542048</v>
+        <v>0.9976482821478245</v>
       </c>
       <c r="F15">
-        <v>1.05551305454321</v>
+        <v>1.003590622209387</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03509165837927</v>
+        <v>1.036910390383416</v>
       </c>
       <c r="J15">
-        <v>1.041528357687467</v>
+        <v>1.004662465374048</v>
       </c>
       <c r="K15">
-        <v>1.046880777503745</v>
+        <v>1.016777833877396</v>
       </c>
       <c r="L15">
-        <v>1.053148687353424</v>
+        <v>1.012542510015098</v>
       </c>
       <c r="M15">
-        <v>1.058993851075449</v>
+        <v>1.018373587868987</v>
       </c>
       <c r="N15">
-        <v>1.017641573019499</v>
+        <v>1.004673166432209</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035755419133685</v>
+        <v>0.9785777947709738</v>
       </c>
       <c r="D16">
-        <v>1.043954914664783</v>
+        <v>1.005184744575418</v>
       </c>
       <c r="E16">
-        <v>1.050337315032269</v>
+        <v>1.001141424360409</v>
       </c>
       <c r="F16">
-        <v>1.05622532803447</v>
+        <v>1.007265989734564</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035240355822229</v>
+        <v>1.038006627784123</v>
       </c>
       <c r="J16">
-        <v>1.042073756430641</v>
+        <v>1.007588307515753</v>
       </c>
       <c r="K16">
-        <v>1.047364314278683</v>
+        <v>1.01942460909842</v>
       </c>
       <c r="L16">
-        <v>1.05372449799238</v>
+        <v>1.015453483329153</v>
       </c>
       <c r="M16">
-        <v>1.059592277166584</v>
+        <v>1.021468986155005</v>
       </c>
       <c r="N16">
-        <v>1.017827832683052</v>
+        <v>1.00568861278047</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036235582704702</v>
+        <v>0.9811920775394929</v>
       </c>
       <c r="D17">
-        <v>1.044330216335932</v>
+        <v>1.00717318696788</v>
       </c>
       <c r="E17">
-        <v>1.050770508429087</v>
+        <v>1.003301434774433</v>
       </c>
       <c r="F17">
-        <v>1.056672187434263</v>
+        <v>1.00953723415893</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035333121452157</v>
+        <v>1.038679602508895</v>
       </c>
       <c r="J17">
-        <v>1.042415602619305</v>
+        <v>1.009392708820741</v>
       </c>
       <c r="K17">
-        <v>1.047667280443942</v>
+        <v>1.021056602433701</v>
       </c>
       <c r="L17">
-        <v>1.054085668684248</v>
+        <v>1.017251824445104</v>
       </c>
       <c r="M17">
-        <v>1.059967533131132</v>
+        <v>1.023380082321051</v>
       </c>
       <c r="N17">
-        <v>1.017944520688985</v>
+        <v>1.006314714322863</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036515613405288</v>
+        <v>0.9827015834311378</v>
       </c>
       <c r="D18">
-        <v>1.044549072955959</v>
+        <v>1.008322042688228</v>
       </c>
       <c r="E18">
-        <v>1.051023245264248</v>
+        <v>1.004550491867107</v>
       </c>
       <c r="F18">
-        <v>1.056932858274328</v>
+        <v>1.010850102328115</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03538704698092</v>
+        <v>1.039066993483903</v>
       </c>
       <c r="J18">
-        <v>1.042614899587756</v>
+        <v>1.010434418146943</v>
       </c>
       <c r="K18">
-        <v>1.047843871968823</v>
+        <v>1.021998656534657</v>
       </c>
       <c r="L18">
-        <v>1.054296326517711</v>
+        <v>1.018291137480083</v>
       </c>
       <c r="M18">
-        <v>1.060186370395124</v>
+        <v>1.024484140719392</v>
       </c>
       <c r="N18">
-        <v>1.018012529701581</v>
+        <v>1.00667611882694</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036611089831146</v>
+        <v>0.9832137325676781</v>
       </c>
       <c r="D19">
-        <v>1.044623688873801</v>
+        <v>1.008711946301864</v>
       </c>
       <c r="E19">
-        <v>1.051109432619359</v>
+        <v>1.004974584373079</v>
       </c>
       <c r="F19">
-        <v>1.057021744627136</v>
+        <v>1.011295774653927</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035405403146635</v>
+        <v>1.03919822423377</v>
       </c>
       <c r="J19">
-        <v>1.042682838441595</v>
+        <v>1.010787821425231</v>
       </c>
       <c r="K19">
-        <v>1.047904064196932</v>
+        <v>1.02231822976288</v>
       </c>
       <c r="L19">
-        <v>1.054368154251269</v>
+        <v>1.018643913298618</v>
       </c>
       <c r="M19">
-        <v>1.060260980956313</v>
+        <v>1.024858822568894</v>
       </c>
       <c r="N19">
-        <v>1.018035710017474</v>
+        <v>1.006798716913093</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.03618406991578</v>
+        <v>0.9809131911226352</v>
       </c>
       <c r="D20">
-        <v>1.044289955249838</v>
+        <v>1.006960988676675</v>
       </c>
       <c r="E20">
-        <v>1.050724024425938</v>
+        <v>1.003070815788538</v>
       </c>
       <c r="F20">
-        <v>1.056624241042056</v>
+        <v>1.009294792281391</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035323187518982</v>
+        <v>1.038607933838249</v>
       </c>
       <c r="J20">
-        <v>1.042378935712949</v>
+        <v>1.009200235445959</v>
       </c>
       <c r="K20">
-        <v>1.047634787825732</v>
+        <v>1.020882531955829</v>
       </c>
       <c r="L20">
-        <v>1.054046919211067</v>
+        <v>1.017059882667456</v>
       </c>
       <c r="M20">
-        <v>1.059927276194501</v>
+        <v>1.023176149505062</v>
       </c>
       <c r="N20">
-        <v>1.017932006668528</v>
+        <v>1.006247934283515</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.034795304000019</v>
+        <v>0.9732493322933087</v>
       </c>
       <c r="D21">
-        <v>1.043204359119819</v>
+        <v>1.001136903468144</v>
       </c>
       <c r="E21">
-        <v>1.049471756740582</v>
+        <v>0.9967513647014753</v>
       </c>
       <c r="F21">
-        <v>1.055332212971364</v>
+        <v>1.002646455157178</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035053743863439</v>
+        <v>1.03662738833264</v>
       </c>
       <c r="J21">
-        <v>1.041389785453142</v>
+        <v>1.003909685348005</v>
       </c>
       <c r="K21">
-        <v>1.046757890211713</v>
+        <v>1.016096768829759</v>
       </c>
       <c r="L21">
-        <v>1.053002469405031</v>
+        <v>1.01179454596216</v>
       </c>
       <c r="M21">
-        <v>1.058841859417491</v>
+        <v>1.017577862495797</v>
       </c>
       <c r="N21">
-        <v>1.017594231771226</v>
+        <v>1.004411867007434</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C22">
-        <v>1.033921748239296</v>
+        <v>0.9682796790953905</v>
       </c>
       <c r="D22">
-        <v>1.042521339620467</v>
+        <v>0.9973679844824989</v>
       </c>
       <c r="E22">
-        <v>1.04868496156738</v>
+        <v>0.9926719182394966</v>
       </c>
       <c r="F22">
-        <v>1.054520082587913</v>
+        <v>0.9983497651203004</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034882682161008</v>
+        <v>1.035332663702607</v>
       </c>
       <c r="J22">
-        <v>1.040766991433863</v>
+        <v>1.000478120857791</v>
       </c>
       <c r="K22">
-        <v>1.046205429803899</v>
+        <v>1.012991763056747</v>
       </c>
       <c r="L22">
-        <v>1.052345713031846</v>
+        <v>1.008389957200536</v>
       </c>
       <c r="M22">
-        <v>1.058159017496151</v>
+        <v>1.013953984524616</v>
       </c>
       <c r="N22">
-        <v>1.017381378023127</v>
+        <v>1.003220562283194</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034384873895472</v>
+        <v>0.9709291601300053</v>
       </c>
       <c r="D23">
-        <v>1.042883465335081</v>
+        <v>0.9993765343602111</v>
       </c>
       <c r="E23">
-        <v>1.049102004307754</v>
+        <v>0.9948450079425889</v>
       </c>
       <c r="F23">
-        <v>1.054950587958212</v>
+        <v>1.000639053704466</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034973521887444</v>
+        <v>1.036023872602135</v>
       </c>
       <c r="J23">
-        <v>1.041097229844665</v>
+        <v>1.002307648874156</v>
       </c>
       <c r="K23">
-        <v>1.046498406045805</v>
+        <v>1.01464725422347</v>
       </c>
       <c r="L23">
-        <v>1.052693878921584</v>
+        <v>1.010204085356753</v>
       </c>
       <c r="M23">
-        <v>1.058521042977524</v>
+        <v>1.015885343200507</v>
       </c>
       <c r="N23">
-        <v>1.017494261569129</v>
+        <v>1.003855734208889</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036207346453166</v>
+        <v>0.981039255226101</v>
       </c>
       <c r="D24">
-        <v>1.044308147657772</v>
+        <v>1.007056905761297</v>
       </c>
       <c r="E24">
-        <v>1.05074502835325</v>
+        <v>1.003175055992312</v>
       </c>
       <c r="F24">
-        <v>1.056645905874786</v>
+        <v>1.009404378038387</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035327676801561</v>
+        <v>1.038640333688306</v>
       </c>
       <c r="J24">
-        <v>1.04239550420671</v>
+        <v>1.009287239067419</v>
       </c>
       <c r="K24">
-        <v>1.047649470222995</v>
+        <v>1.020961217306714</v>
       </c>
       <c r="L24">
-        <v>1.054064428451547</v>
+        <v>1.017146642574007</v>
       </c>
       <c r="M24">
-        <v>1.059945466704887</v>
+        <v>1.023268330798485</v>
       </c>
       <c r="N24">
-        <v>1.017937661379906</v>
+        <v>1.006278120991807</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038320641261822</v>
+        <v>0.9921738888909707</v>
       </c>
       <c r="D25">
-        <v>1.045959434867842</v>
+        <v>1.015542559408683</v>
       </c>
       <c r="E25">
-        <v>1.052654119956867</v>
+        <v>1.012419779621068</v>
       </c>
       <c r="F25">
-        <v>1.058614225377607</v>
+        <v>1.019112564644709</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035731472556645</v>
+        <v>1.041476061778283</v>
       </c>
       <c r="J25">
-        <v>1.043898313297091</v>
+        <v>1.016967534175423</v>
       </c>
       <c r="K25">
-        <v>1.048980374534731</v>
+        <v>1.027904294971838</v>
       </c>
       <c r="L25">
-        <v>1.055654606828534</v>
+        <v>1.024828306045307</v>
       </c>
       <c r="M25">
-        <v>1.061596740874494</v>
+        <v>1.031421254650368</v>
       </c>
       <c r="N25">
-        <v>1.018450119393197</v>
+        <v>1.008941590333165</v>
       </c>
     </row>
   </sheetData>
